--- a/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748A0CF-136C-4309-A82F-092DCF48B0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Journal de bord Bataille navale Kevin Gomes</t>
   </si>
@@ -44,11 +45,17 @@
   <si>
     <t>Initiation de la planification du mode agile</t>
   </si>
+  <si>
+    <t>Finalisation avant le rendu (mise au propre du programme)</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,12 +168,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,6 +189,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,486 +474,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="57" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="11" customWidth="1"/>
+    <col min="1" max="3" width="18.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="57" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="9" customWidth="1"/>
     <col min="6" max="6" width="82.140625" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>43901</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="6">
+        <v>43908</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="6"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="6"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="6"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="6"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="6"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="6"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="6"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="6"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="6"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="6"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="6"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="6"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="6"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="6"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="6"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="6"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="A45" s="6"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748A0CF-136C-4309-A82F-092DCF48B0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223086B-DAF0-4F76-92F4-B8FB8F13FC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Journal de bord Bataille navale Kevin Gomes</t>
   </si>
@@ -46,10 +46,16 @@
     <t>Initiation de la planification du mode agile</t>
   </si>
   <si>
-    <t>Finalisation avant le rendu (mise au propre du programme)</t>
-  </si>
-  <si>
     <t>40 min</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Finalisation avant le rendu (1.0)</t>
+  </si>
+  <si>
+    <t>Finalisation avant le rendu (0.1)</t>
   </si>
 </sst>
 </file>
@@ -554,16 +560,27 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>43915</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>

--- a/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223086B-DAF0-4F76-92F4-B8FB8F13FC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14DD5E9-1EB9-48B5-903D-34DD793BF189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Journal de bord Bataille navale Kevin Gomes</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Finalisation avant le rendu (0.1)</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>Appel de M. Favre par rapport au mode Agile sur GitHub (Project, Issues)</t>
   </si>
 </sst>
 </file>
@@ -484,13 +490,13 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="57" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="9" customWidth="1"/>
     <col min="6" max="6" width="82.140625" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
@@ -585,7 +591,18 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>

--- a/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
+++ b/Documentation/Journal de bord Bataille Navale Kevin Gomes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14DD5E9-1EB9-48B5-903D-34DD793BF189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7497B2A5-95D7-4AD7-BB33-CF3BB337DCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Journal de bord Bataille navale Kevin Gomes</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Appel de M. Favre par rapport au mode Agile sur GitHub (Project, Issues)</t>
+  </si>
+  <si>
+    <t>Finalisation avant le rendu</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,18 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
